--- a/kadai5/day1/4619055_辰川力駆_5_1.xlsx
+++ b/kadai5/day1/4619055_辰川力駆_5_1.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tea/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tea/development/tus_school/sophomore/zikken2/kadai5/day1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662D0E94-6D3F-C44F-82AE-4D667CBD6835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0F3405-AE57-B94C-8B25-EC6D74BF0131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3760" yWindow="2260" windowWidth="28300" windowHeight="17440" xr2:uid="{834BBA4E-89B4-624B-8ACB-1E9DEA949A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>女子学生の所属学部推定</t>
     <rPh sb="0" eb="4">
@@ -264,12 +264,37 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>P(学部合計)</t>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">ガクブ </t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t xml:space="preserve">ゴウケイ </t>
+    <t>課題1-2</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カダイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ダンセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジョセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題1-4</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カダイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題1-5</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カダイ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -279,7 +304,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="184" formatCode="0.000000"/>
+    <numFmt numFmtId="176" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -324,11 +349,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2099E9-1B4D-0246-A7E0-82B2B9994F9A}">
-  <dimension ref="B2:I26"/>
+  <dimension ref="B2:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -660,20 +685,20 @@
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:11">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="2"/>
       <c r="G2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="1"/>
+    <row r="3" spans="2:11">
+      <c r="B3" s="2"/>
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -692,8 +717,11 @@
       <c r="I3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:9">
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -707,20 +735,20 @@
         <f>SUM(C4:D4)</f>
         <v>2841</v>
       </c>
-      <c r="G4" s="2">
-        <f>D4/$D$12</f>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G11" si="0">D4/$D$12</f>
         <v>0.16095890410958905</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <f>C18/$C$15*(D4/E4)</f>
         <v>0.16095890410958905</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <f>D4/E4*C18</f>
         <v>3.69675701839303E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:11">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -731,23 +759,23 @@
         <v>390</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E11" si="0">SUM(C5:D5)</f>
+        <f t="shared" ref="E5:E11" si="1">SUM(C5:D5)</f>
         <v>1661</v>
       </c>
-      <c r="G5" s="2">
-        <f>D5/$D$12</f>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
         <v>0.10273972602739725</v>
       </c>
-      <c r="H5" s="2">
-        <f t="shared" ref="H5:H11" si="1">C19/$C$15*(D5/E5)</f>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:H11" si="2">C19/$C$15*(D5/E5)</f>
         <v>0.10273972602739725</v>
       </c>
-      <c r="I5" s="2">
-        <f t="shared" ref="I5:I11" si="2">D5/E5*C19</f>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I11" si="3">D5/E5*C19</f>
         <v>2.3596321393998063E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:11">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -758,23 +786,23 @@
         <v>547</v>
       </c>
       <c r="E6">
+        <f t="shared" si="1"/>
+        <v>1039</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
-        <v>1039</v>
-      </c>
-      <c r="G6" s="2">
-        <f>D6/$D$12</f>
         <v>0.1440990516332982</v>
       </c>
-      <c r="H6" s="2">
-        <f t="shared" si="1"/>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
         <v>0.1440990516332982</v>
       </c>
-      <c r="I6" s="2">
-        <f t="shared" si="2"/>
+      <c r="I6" s="1">
+        <f t="shared" si="3"/>
         <v>3.3095353339787026E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:11">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -785,23 +813,23 @@
         <v>417</v>
       </c>
       <c r="E7">
+        <f t="shared" si="1"/>
+        <v>2188</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>2188</v>
-      </c>
-      <c r="G7" s="2">
-        <f>D7/$D$12</f>
         <v>0.10985247629083246</v>
       </c>
-      <c r="H7" s="2">
-        <f t="shared" si="1"/>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
         <v>0.10985247629083245</v>
       </c>
-      <c r="I7" s="2">
-        <f t="shared" si="2"/>
+      <c r="I7" s="1">
+        <f t="shared" si="3"/>
         <v>2.5229912875121004E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:11">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -812,23 +840,23 @@
         <v>148</v>
       </c>
       <c r="E8">
+        <f t="shared" si="1"/>
+        <v>849</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>849</v>
-      </c>
-      <c r="G8" s="2">
-        <f>D8/$D$12</f>
         <v>3.8988408851422553E-2</v>
       </c>
-      <c r="H8" s="2">
-        <f t="shared" si="1"/>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
         <v>3.8988408851422546E-2</v>
       </c>
-      <c r="I8" s="2">
-        <f t="shared" si="2"/>
+      <c r="I8" s="1">
+        <f t="shared" si="3"/>
         <v>8.9545014520813152E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:11">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -839,23 +867,23 @@
         <v>870</v>
       </c>
       <c r="E9">
+        <f t="shared" si="1"/>
+        <v>5159</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>5159</v>
-      </c>
-      <c r="G9" s="2">
-        <f>D9/$D$12</f>
         <v>0.22918861959957851</v>
       </c>
-      <c r="H9" s="2">
-        <f t="shared" si="1"/>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
         <v>0.22918861959957854</v>
       </c>
-      <c r="I9" s="2">
-        <f t="shared" si="2"/>
+      <c r="I9" s="1">
+        <f t="shared" si="3"/>
         <v>5.263794772507261E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:11">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -866,23 +894,23 @@
         <v>372</v>
       </c>
       <c r="E10">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>1400</v>
-      </c>
-      <c r="G10" s="2">
-        <f>D10/$D$12</f>
         <v>9.799789251844046E-2</v>
       </c>
-      <c r="H10" s="2">
-        <f t="shared" si="1"/>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
         <v>9.7997892518440474E-2</v>
       </c>
-      <c r="I10" s="2">
-        <f t="shared" si="2"/>
+      <c r="I10" s="1">
+        <f t="shared" si="3"/>
         <v>2.2507260406582769E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:11">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -893,23 +921,23 @@
         <v>441</v>
       </c>
       <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1391</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="0"/>
-        <v>1391</v>
-      </c>
-      <c r="G11" s="2">
-        <f>D11/$D$12</f>
         <v>0.11617492096944151</v>
       </c>
-      <c r="H11" s="2">
-        <f t="shared" si="1"/>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
         <v>0.11617492096944153</v>
       </c>
-      <c r="I11" s="2">
-        <f t="shared" si="2"/>
+      <c r="I11" s="1">
+        <f t="shared" si="3"/>
         <v>2.6681994191674736E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:11">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -926,7 +954,7 @@
         <v>16528</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:11">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -935,7 +963,7 @@
         <v>0.22967086156824781</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:11">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -943,8 +971,23 @@
         <f>C12/E12</f>
         <v>0.77032913843175221</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17">
+        <f>C12/E11*(C11/C12)</f>
+        <v>0.68296189791516904</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
         <v>20</v>
       </c>
@@ -952,77 +995,75 @@
         <f>E4/$E$12</f>
         <v>0.17189012584704744</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <f>D12/E11*(D11/D12)</f>
+        <v>0.31703810208483102</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:C26" si="3">E5/$E$12</f>
+        <f t="shared" ref="C19:C26" si="4">E5/$E$12</f>
         <v>0.10049612778315585</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:6">
       <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="C20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.286302032913843E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:6">
       <c r="B21" t="s">
         <v>23</v>
       </c>
       <c r="C21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1323814133591481</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:6">
       <c r="B22" t="s">
         <v>24</v>
       </c>
       <c r="C22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.136737657308809E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:6">
       <c r="B23" t="s">
         <v>25</v>
       </c>
       <c r="C23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.31213697967086157</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:6">
       <c r="B24" t="s">
         <v>26</v>
       </c>
       <c r="C24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.4704743465634072E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:6">
       <c r="B25" t="s">
         <v>27</v>
       </c>
       <c r="C25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.4160212971926426E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="3"/>
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/kadai5/day1/4619055_辰川力駆_5_1.xlsx
+++ b/kadai5/day1/4619055_辰川力駆_5_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tea/development/tus_school/sophomore/zikken2/kadai5/day1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0F3405-AE57-B94C-8B25-EC6D74BF0131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC90DE6E-06C5-A249-9768-04DEBC5217A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="2260" windowWidth="28300" windowHeight="17440" xr2:uid="{834BBA4E-89B4-624B-8ACB-1E9DEA949A3F}"/>
+    <workbookView xWindow="40020" yWindow="3560" windowWidth="28300" windowHeight="17440" xr2:uid="{834BBA4E-89B4-624B-8ACB-1E9DEA949A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>女子学生の所属学部推定</t>
     <rPh sb="0" eb="4">
@@ -295,6 +295,50 @@
     <t>課題1-5</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">カダイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均点</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヘイキン </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">テン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標準偏差</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ヒョウジュンヘンサ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の得点</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジブンノトクテン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>偏差値</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ヘンサチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順位(1000位中)</t>
+    <rPh sb="0" eb="2">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">クライ </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">チュウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -672,7 +716,7 @@
   <dimension ref="B2:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -683,6 +727,7 @@
     <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
@@ -774,6 +819,9 @@
         <f t="shared" ref="I5:I11" si="3">D5/E5*C19</f>
         <v>2.3596321393998063E-2</v>
       </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" t="s">
@@ -801,6 +849,9 @@
         <f t="shared" si="3"/>
         <v>3.3095353339787026E-2</v>
       </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" t="s">
@@ -828,6 +879,9 @@
         <f t="shared" si="3"/>
         <v>2.5229912875121004E-2</v>
       </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" t="s">
@@ -855,6 +909,9 @@
         <f t="shared" si="3"/>
         <v>8.9545014520813152E-3</v>
       </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" t="s">
@@ -881,6 +938,9 @@
       <c r="I9" s="1">
         <f t="shared" si="3"/>
         <v>5.263794772507261E-2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:11">

--- a/kadai5/day1/4619055_辰川力駆_5_1.xlsx
+++ b/kadai5/day1/4619055_辰川力駆_5_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tea/development/tus_school/sophomore/zikken2/kadai5/day1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC90DE6E-06C5-A249-9768-04DEBC5217A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C06E33-DA14-F044-BF33-8A8C0CED52B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40020" yWindow="3560" windowWidth="28300" windowHeight="17440" xr2:uid="{834BBA4E-89B4-624B-8ACB-1E9DEA949A3F}"/>
+    <workbookView xWindow="4540" yWindow="3020" windowWidth="28300" windowHeight="17440" xr2:uid="{834BBA4E-89B4-624B-8ACB-1E9DEA949A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>女子学生の所属学部推定</t>
     <rPh sb="0" eb="4">
@@ -339,6 +339,37 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t xml:space="preserve">チュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P(女子学生|あゆみ)</t>
+    <rPh sb="2" eb="6">
+      <t xml:space="preserve">ジョシガクセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P(男子学生|あゆみ)</t>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ダンシ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ジョシガクセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P(学部|男子学生)P(男子学生|あゆみ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P(学部|女子学生)P(女子学生|あゆみ)</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ジョシ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ジョシ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -347,10 +378,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="185" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -363,6 +395,14 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -389,7 +429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -398,6 +438,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2099E9-1B4D-0246-A7E0-82B2B9994F9A}">
-  <dimension ref="B2:K25"/>
+  <dimension ref="B2:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -727,10 +776,11 @@
     <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:12">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -742,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:12">
       <c r="B3" s="2"/>
       <c r="C3" t="s">
         <v>2</v>
@@ -766,7 +816,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:12">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -793,7 +843,7 @@
         <v>3.69675701839303E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:12">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -822,8 +872,11 @@
       <c r="K5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="2:11">
+      <c r="L5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -852,8 +905,11 @@
       <c r="K6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="2:11">
+      <c r="L6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -882,8 +938,11 @@
       <c r="K7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="2:11">
+      <c r="L7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -912,8 +971,12 @@
       <c r="K8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="2:11">
+      <c r="L8">
+        <f>10*(L7-L5)/L6+50</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -942,8 +1005,12 @@
       <c r="K9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="2:11">
+      <c r="L9" s="4">
+        <f>(1-_xlfn.NORM.DIST(100,60,20,TRUE))*1000</f>
+        <v>22.750131948179209</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -970,7 +1037,7 @@
         <v>2.2507260406582769E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:12">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -997,7 +1064,7 @@
         <v>2.6681994191674736E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:12">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1014,7 +1081,7 @@
         <v>16528</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:12">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -1023,7 +1090,7 @@
         <v>0.22967086156824781</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:12">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -1038,7 +1105,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:13">
       <c r="E17" t="s">
         <v>29</v>
       </c>
@@ -1046,8 +1113,14 @@
         <f>C12/E11*(C11/C12)</f>
         <v>0.68296189791516904</v>
       </c>
-    </row>
-    <row r="18" spans="2:6">
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
       <c r="B18" t="s">
         <v>20</v>
       </c>
@@ -1062,17 +1135,23 @@
         <f>D12/E11*(D11/D12)</f>
         <v>0.31703810208483102</v>
       </c>
-    </row>
-    <row r="19" spans="2:6">
+      <c r="K18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
       <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:C26" si="4">E5/$E$12</f>
+        <f t="shared" ref="C19:C25" si="4">E5/$E$12</f>
         <v>0.10049612778315585</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:13">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -1080,8 +1159,14 @@
         <f t="shared" si="4"/>
         <v>6.286302032913843E-2</v>
       </c>
-    </row>
-    <row r="21" spans="2:6">
+      <c r="L20" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
       <c r="B21" t="s">
         <v>23</v>
       </c>
@@ -1089,8 +1174,19 @@
         <f t="shared" si="4"/>
         <v>0.1323814133591481</v>
       </c>
-    </row>
-    <row r="22" spans="2:6">
+      <c r="K21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
+        <f>C4/$C$12*$L$18</f>
+        <v>1.7514923028589379E-2</v>
+      </c>
+      <c r="M21" s="3">
+        <f>D4/$D$12*$L$17</f>
+        <v>0.14486301369863014</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
       <c r="B22" t="s">
         <v>24</v>
       </c>
@@ -1098,8 +1194,19 @@
         <f t="shared" si="4"/>
         <v>5.136737657308809E-2</v>
       </c>
-    </row>
-    <row r="23" spans="2:6">
+      <c r="K22" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" ref="L22:L28" si="5">C5/$C$12*$L$18</f>
+        <v>9.9827207037386113E-3</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" ref="M22:M28" si="6">D5/$D$12*$L$17</f>
+        <v>9.2465753424657529E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
       <c r="B23" t="s">
         <v>25</v>
       </c>
@@ -1107,8 +1214,19 @@
         <f t="shared" si="4"/>
         <v>0.31213697967086157</v>
       </c>
-    </row>
-    <row r="24" spans="2:6">
+      <c r="K23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="5"/>
+        <v>3.8642789820923663E-3</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="6"/>
+        <v>0.12968914646996837</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
       <c r="B24" t="s">
         <v>26</v>
       </c>
@@ -1116,8 +1234,19 @@
         <f t="shared" si="4"/>
         <v>8.4704743465634072E-2</v>
       </c>
-    </row>
-    <row r="25" spans="2:6">
+      <c r="K24" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="5"/>
+        <v>1.3909833490417845E-2</v>
+      </c>
+      <c r="M24" s="3">
+        <f t="shared" si="6"/>
+        <v>9.8867228661749212E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
       <c r="B25" t="s">
         <v>27</v>
       </c>
@@ -1125,6 +1254,62 @@
         <f t="shared" si="4"/>
         <v>8.4160212971926426E-2</v>
       </c>
+      <c r="K25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="5"/>
+        <v>5.5058121269242859E-3</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="6"/>
+        <v>3.5089567966280301E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="K26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="5"/>
+        <v>3.3686773484134465E-2</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" si="6"/>
+        <v>0.20626975763962066</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="K27" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="5"/>
+        <v>8.0741438894125044E-3</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="6"/>
+        <v>8.8198103266596412E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="K28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="5"/>
+        <v>7.4615142946905444E-3</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" si="6"/>
+        <v>0.10455742887249736</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="L30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
